--- a/CAIM CB R1 - Optimisation SOLUTION.xlsx
+++ b/CAIM CB R1 - Optimisation SOLUTION.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QRA\Alan\CB Workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CB Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17453172-1A89-4260-B756-0D7CDD120433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDC099C-473E-42DA-AE30-F47144B1848C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5450,7 +5450,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>196120</xdr:colOff>
+      <xdr:colOff>196119</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>27312</xdr:rowOff>
     </xdr:to>
@@ -5985,14 +5985,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BA213"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AD1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.15"/>
   <cols>
     <col min="1" max="1" width="5.4609375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.84375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.3046875" style="8" customWidth="1"/>
     <col min="3" max="3" width="9.4609375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.23046875" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9.53515625" style="8" bestFit="1" customWidth="1"/>
@@ -24830,6 +24830,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -24908,6 +24909,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AD207"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
